--- a/public/demoFiles/kitDemo.xlsx
+++ b/public/demoFiles/kitDemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Kit_Rent</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Employee_Id</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +393,7 @@
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -403,6 +406,9 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
